--- a/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1987.xlsx
+++ b/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1987.xlsx
@@ -37,19 +37,19 @@
     <t>主题5</t>
   </si>
   <si>
-    <t>0.020*"foreign" + 0.018*"import" + 0.018*"exchange" + 0.017*"bank" + 0.013*"export" + 0.012*"may" + 0.011*"currency" + 0.009*"rate" + 0.009*"account" + 0.008*"percent"</t>
-  </si>
-  <si>
-    <t>0.004*"foreign" + 0.003*"import" + 0.003*"bank" + 0.003*"exchange" + 0.003*"currency" + 0.003*"export" + 0.002*"may" + 0.002*"rate" + 0.002*"account" + 0.002*"percent"</t>
-  </si>
-  <si>
-    <t>0.009*"foreign" + 0.009*"bank" + 0.008*"exchange" + 0.006*"import" + 0.006*"export" + 0.005*"may" + 0.004*"currency" + 0.004*"account" + 0.004*"rate" + 0.004*"percent"</t>
-  </si>
-  <si>
-    <t>0.011*"foreign" + 0.009*"import" + 0.009*"bank" + 0.007*"exchange" + 0.006*"currency" + 0.006*"may" + 0.005*"export" + 0.005*"percent" + 0.004*"payment" + 0.004*"country"</t>
-  </si>
-  <si>
-    <t>0.010*"import" + 0.010*"exchange" + 0.009*"foreign" + 0.006*"export" + 0.006*"bank" + 0.005*"currency" + 0.004*"may" + 0.004*"percent" + 0.004*"country" + 0.004*"rate"</t>
+    <t>0.051*"export" + 0.031*"import" + 0.029*"percent" + 0.025*"proceeds" + 0.016*"tax" + 0.015*"good" + 0.012*"subject" + 0.012*"gold" + 0.011*"certain" + 0.011*"december"</t>
+  </si>
+  <si>
+    <t>0.029*"may" + 0.021*"bank" + 0.021*"control" + 0.020*"foreign" + 0.018*"exchange" + 0.018*"per" + 0.016*"resident" + 0.015*"note" + 0.014*"gold" + 0.013*"state"</t>
+  </si>
+  <si>
+    <t>0.032*"foreign" + 0.023*"abroad" + 0.021*"capital" + 0.015*"year" + 0.015*"transfer" + 0.015*"exchange" + 0.013*"u" + 0.013*"may" + 0.011*"dollar" + 0.011*"travel"</t>
+  </si>
+  <si>
+    <t>0.055*"import" + 0.032*"payment" + 0.022*"require" + 0.021*"license" + 0.018*"bank" + 0.016*"fund" + 0.015*"export" + 0.014*"country" + 0.014*"international" + 0.013*"monetary"</t>
+  </si>
+  <si>
+    <t>0.047*"exchange" + 0.042*"currency" + 0.042*"foreign" + 0.042*"bank" + 0.038*"rate" + 0.037*"account" + 0.015*"may" + 0.014*"market" + 0.011*"nonresident" + 0.010*"central"</t>
   </si>
 </sst>
 </file>
